--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_26_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_26_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17100.16361931604</v>
+        <v>3402932.56024389</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17100.16361931604</v>
+        <v>3402932.56024389</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54521.91840233688</v>
+        <v>3402920.023951462</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>54521.91840233688</v>
+        <v>3402920.023951462</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1343838793.516511</v>
+        <v>53080686.42552609</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14342.03075826748</v>
+        <v>1406289.887326779</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26422.36476321486</v>
+        <v>2429862.03160502</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38486.98073911587</v>
+        <v>3453434.175883262</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>51148.07462914536</v>
+        <v>4475707.656802735</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>63809.29558873664</v>
+        <v>5498006.424565009</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>76470.51654832717</v>
+        <v>6520305.192327499</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>89131.73750791739</v>
+        <v>7542603.960089927</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>101792.958467508</v>
+        <v>8564902.727852242</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>114454.1794270992</v>
+        <v>9587201.495614477</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>127115.4003866904</v>
+        <v>10609500.26337674</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>139776.6213462817</v>
+        <v>11631799.03113902</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>152437.8423058729</v>
+        <v>12654097.79890128</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>165099.0632654642</v>
+        <v>13676396.56666356</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>177760.2842250557</v>
+        <v>14698695.33442578</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>190421.5051846471</v>
+        <v>15720994.10218802</v>
       </c>
     </row>
   </sheetData>
@@ -27037,25 +27037,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>207.0000000000287</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>1.128350192611106e-10</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>-5.599215561524033e-11</v>
@@ -27064,7 +27064,7 @@
         <v>206.9999999999755</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>1.18860976875294e-10</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1086</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
